--- a/codebuch.xlsx
+++ b/codebuch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandra/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandra/Documents/GitHub/survey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E9F933-4E3E-904B-B4F0-0F9B76008F65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A2ACA1-7755-9248-9874-DEB9D85C3A6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codebuch" sheetId="1" r:id="rId1"/>
@@ -253,15 +253,15 @@
     </r>
   </si>
   <si>
-    <t>1 sehr selten
-3 manchmal
-6 sehr häufig</t>
-  </si>
-  <si>
     <t>keine Angabe
 weiblich
 männlich
 nicht-binär</t>
+  </si>
+  <si>
+    <t>1 sehr selten
+3 manchmal
+5 sehr häufig</t>
   </si>
 </sst>
 </file>
@@ -662,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW16383"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -933,7 +933,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>43</v>
       </c>
@@ -944,7 +944,7 @@
         <v>11</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="45" x14ac:dyDescent="0.15">
@@ -952,7 +952,7 @@
         <v>12</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.15">
@@ -960,7 +960,7 @@
         <v>13</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="45" x14ac:dyDescent="0.15">
@@ -968,7 +968,7 @@
         <v>14</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="45" x14ac:dyDescent="0.15">
@@ -976,7 +976,7 @@
         <v>15</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45" x14ac:dyDescent="0.15">
@@ -984,7 +984,7 @@
         <v>16</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45" x14ac:dyDescent="0.15">
@@ -992,7 +992,7 @@
         <v>17</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="45" x14ac:dyDescent="0.15">
@@ -1000,7 +1000,7 @@
         <v>18</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="45" x14ac:dyDescent="0.15">
@@ -1008,7 +1008,7 @@
         <v>19</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="45" x14ac:dyDescent="0.15">
@@ -1016,7 +1016,7 @@
         <v>24</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="45" x14ac:dyDescent="0.15">
@@ -1024,7 +1024,7 @@
         <v>21</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="45" x14ac:dyDescent="0.15">
@@ -1032,7 +1032,7 @@
         <v>22</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="45" x14ac:dyDescent="0.15">
@@ -1040,10 +1040,10 @@
         <v>23</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>25</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>26</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.15">

--- a/codebuch.xlsx
+++ b/codebuch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandra/Documents/GitHub/survey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A2ACA1-7755-9248-9874-DEB9D85C3A6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDFE0A8-F117-8842-83F3-5E8EBADB8434}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -161,11 +161,6 @@
 Nein</t>
   </si>
   <si>
-    <t>1 sehr unzufrieden
-3 weder noch
-6 sehr zufrieden</t>
-  </si>
-  <si>
     <t>Google Maps
 OpenStreetMap
 Bike Citizens
@@ -262,6 +257,11 @@
     <t>1 sehr selten
 3 manchmal
 5 sehr häufig</t>
+  </si>
+  <si>
+    <t>1 sehr unzufrieden
+3 weder noch
+5 sehr zufrieden</t>
   </si>
 </sst>
 </file>
@@ -662,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW16383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -804,7 +804,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:49" ht="105" x14ac:dyDescent="0.15">
@@ -812,7 +812,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:49" ht="45" x14ac:dyDescent="0.15">
@@ -820,12 +820,12 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:49" ht="31" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="3"/>
     </row>
@@ -834,7 +834,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:49" ht="90" x14ac:dyDescent="0.15">
@@ -842,7 +842,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:49" ht="90" x14ac:dyDescent="0.15">
@@ -850,7 +850,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="90" x14ac:dyDescent="0.15">
@@ -858,7 +858,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="90" x14ac:dyDescent="0.15">
@@ -866,7 +866,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="90" x14ac:dyDescent="0.15">
@@ -874,7 +874,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="90" x14ac:dyDescent="0.15">
@@ -882,7 +882,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="90" x14ac:dyDescent="0.15">
@@ -890,7 +890,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="90" x14ac:dyDescent="0.15">
@@ -898,7 +898,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="90" x14ac:dyDescent="0.15">
@@ -906,7 +906,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="90" x14ac:dyDescent="0.15">
@@ -914,7 +914,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="90" x14ac:dyDescent="0.15">
@@ -922,7 +922,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="90" x14ac:dyDescent="0.15">
@@ -930,12 +930,12 @@
         <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" s="3"/>
     </row>
@@ -944,7 +944,7 @@
         <v>11</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="45" x14ac:dyDescent="0.15">
@@ -952,7 +952,7 @@
         <v>12</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.15">
@@ -960,7 +960,7 @@
         <v>13</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="45" x14ac:dyDescent="0.15">
@@ -968,7 +968,7 @@
         <v>14</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="45" x14ac:dyDescent="0.15">
@@ -976,7 +976,7 @@
         <v>15</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45" x14ac:dyDescent="0.15">
@@ -984,7 +984,7 @@
         <v>16</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45" x14ac:dyDescent="0.15">
@@ -992,7 +992,7 @@
         <v>17</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="45" x14ac:dyDescent="0.15">
@@ -1000,7 +1000,7 @@
         <v>18</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="45" x14ac:dyDescent="0.15">
@@ -1008,7 +1008,7 @@
         <v>19</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="45" x14ac:dyDescent="0.15">
@@ -1016,7 +1016,7 @@
         <v>24</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="45" x14ac:dyDescent="0.15">
@@ -1024,7 +1024,7 @@
         <v>21</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="45" x14ac:dyDescent="0.15">
@@ -1032,7 +1032,7 @@
         <v>22</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="45" x14ac:dyDescent="0.15">
@@ -1040,7 +1040,7 @@
         <v>23</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -1053,7 +1053,7 @@
         <v>26</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.15">

--- a/codebuch.xlsx
+++ b/codebuch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandra/Documents/GitHub/survey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDFE0A8-F117-8842-83F3-5E8EBADB8434}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6043B09-4A88-4E48-AC7C-8B0853B73AC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,20 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
-  <si>
-    <t>*Einwilligungserklärung*
-Mit dieser Umfrage möchten wir herausfinden, was die größten Probleme für Lastenräder darstellen und ob sich diese in unterschiedlichen Städten und für demographisch verschiedene Personengruppen unterscheiden.
-Hierfür können optional Geschlecht und Alter in der Umfrage angegeben werden. Die Ergebnisse der Studie dienen als Recherche zur Weiterentwicklung des Lastenrad-Routings "CargoRocket". Zusätzlich möchten wir anderen ermöglichen die Ergebnisse kostenlos weiterzuverwenden, daher wird der Datensatz anonymisiert als Open Data bereitgestellt und die aggregierten Ergebnisse über die Webseite https://cargorocket.de veröffentlicht.
-Die E-Mail Adresse kann freiwillig angegeben werden, um über einen verfügbaren Beta-Test der CargoRocket App zu informieren. Die E-Mail Adresse wird getrennt von den Umfrageergebnissen gespeichert und gelöscht, sobald der Zweck - das Informieren über den Beta-Test - erfüllt ist.
-Du hast das Recht, die Löschung deine personenbezogenen Daten zu verlangen. Bitte nehme zur Kenntnis, dass eine Löschung der Daten nur vor Abschluss der Datenerhebung möglich ist und wenn eine E-Mail Adresse angegeben wurde. Im Anschluss an die Datenerhebung werden die Umfragedaten von den E-Mail Adressen getrennt; somit sind die Daten anonymisiert und eine Zuordnung der Daten zu einer E-Mail Adresse ist nicht mehr möglich. Eine Löschung der E-Mail Adresse kann selbstverständlich immer beantragt werden.
- Verantwortlicher für die Datenverarbeitung ist:
-Alexandra Kapp
-Kapp Prenninger Chilla GbR
-datenschutz@cargorocket.de
-Hiermit willige ich freiwillig in die Erhebung und Verarbeitung meiner personenbezogenen Daten ein, sofern ich diese optionalen Angaben ausfülle.
-﻿</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
   <si>
     <t>Ich fahre:</t>
   </si>
@@ -120,9 +107,6 @@
   </si>
   <si>
     <t>deine E-Mail Adresse</t>
-  </si>
-  <si>
-    <t>Ich stimme zu</t>
   </si>
   <si>
     <t>Frage</t>
@@ -660,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW16383"/>
+  <dimension ref="A1:AW16382"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -685,10 +669,10 @@
   <sheetData>
     <row r="1" spans="1:49" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -738,41 +722,41 @@
       <c r="AV1" s="6"/>
       <c r="AW1" s="6"/>
     </row>
-    <row r="2" spans="1:49" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:49" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>30</v>
+      <c r="B2" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:49" ht="30" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:49" ht="90" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:49" ht="90" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>34</v>
+      <c r="B4" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:49" ht="90" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:49" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:49" ht="15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:49" ht="30" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:49" ht="30" x14ac:dyDescent="0.15">
@@ -780,7 +764,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:49" ht="30" x14ac:dyDescent="0.15">
@@ -788,53 +772,53 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:49" ht="30" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:49" ht="45" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:49" ht="45" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:49" ht="105" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:49" ht="105" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:49" ht="45" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:49" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:49" ht="90" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:49" ht="45" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:49" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:49" ht="90" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:49" ht="90" x14ac:dyDescent="0.15">
@@ -842,7 +826,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:49" ht="90" x14ac:dyDescent="0.15">
@@ -850,7 +834,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="90" x14ac:dyDescent="0.15">
@@ -858,7 +842,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="90" x14ac:dyDescent="0.15">
@@ -866,7 +850,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="90" x14ac:dyDescent="0.15">
@@ -874,7 +858,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="90" x14ac:dyDescent="0.15">
@@ -882,7 +866,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="90" x14ac:dyDescent="0.15">
@@ -890,7 +874,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="90" x14ac:dyDescent="0.15">
@@ -898,7 +882,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="90" x14ac:dyDescent="0.15">
@@ -906,7 +890,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="90" x14ac:dyDescent="0.15">
@@ -914,7 +898,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="90" x14ac:dyDescent="0.15">
@@ -922,29 +906,29 @@
         <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="90" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>41</v>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" ht="45" x14ac:dyDescent="0.15">
+      <c r="A27" s="4" t="s">
+        <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="45" x14ac:dyDescent="0.15">
@@ -952,7 +936,7 @@
         <v>12</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.15">
@@ -960,7 +944,7 @@
         <v>13</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="45" x14ac:dyDescent="0.15">
@@ -968,7 +952,7 @@
         <v>14</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="45" x14ac:dyDescent="0.15">
@@ -976,7 +960,7 @@
         <v>15</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45" x14ac:dyDescent="0.15">
@@ -984,7 +968,7 @@
         <v>16</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45" x14ac:dyDescent="0.15">
@@ -992,7 +976,7 @@
         <v>17</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="45" x14ac:dyDescent="0.15">
@@ -1000,23 +984,23 @@
         <v>18</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="45" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="45" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="45" x14ac:dyDescent="0.15">
@@ -1024,7 +1008,7 @@
         <v>21</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="45" x14ac:dyDescent="0.15">
@@ -1032,47 +1016,42 @@
         <v>22</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="45" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:2" ht="60" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="60" x14ac:dyDescent="0.15">
+      <c r="B41" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.15">
+      <c r="B43" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="A45" s="4" t="s">
-        <v>29</v>
-      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="4"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
@@ -50084,9 +50063,6 @@
     </row>
     <row r="16382" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16382" s="4"/>
-    </row>
-    <row r="16383" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16383" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
